--- a/minimumVarianceControl/dataLogging.xlsx
+++ b/minimumVarianceControl/dataLogging.xlsx
@@ -4,13 +4,46 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Log2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Tue Nov 03 11:15:07 2015</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,10 +375,3644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>9.7339999675750732</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+      <c r="E4">
+        <v>350</v>
+      </c>
+      <c r="F4">
+        <v>-43.99999999984081</v>
+      </c>
+      <c r="G4">
+        <v>11.059999999960425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19.733999967575073</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>350</v>
+      </c>
+      <c r="F5">
+        <v>-44.342609626855996</v>
+      </c>
+      <c r="G5">
+        <v>11.402609626974948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>29.733000040054321</v>
+      </c>
+      <c r="B6">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>350</v>
+      </c>
+      <c r="F6">
+        <v>-44.34230742582411</v>
+      </c>
+      <c r="G6">
+        <v>11.402307425943059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>39.749000072479248</v>
+      </c>
+      <c r="B7">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <v>350</v>
+      </c>
+      <c r="F7">
+        <v>-44.51363139465505</v>
+      </c>
+      <c r="G7">
+        <v>11.57363139477367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>49.733000040054321</v>
+      </c>
+      <c r="B8">
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>350</v>
+      </c>
+      <c r="F8">
+        <v>-43.832342920871213</v>
+      </c>
+      <c r="G8">
+        <v>10.892342920988433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>59.732000112533569</v>
+      </c>
+      <c r="B9">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>350</v>
+      </c>
+      <c r="F9">
+        <v>-45.212275224520468</v>
+      </c>
+      <c r="G9">
+        <v>12.272275224634976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>69.732000112533569</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <v>350</v>
+      </c>
+      <c r="F10">
+        <v>-44.859752954760637</v>
+      </c>
+      <c r="G10">
+        <v>11.919752954874449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>79.763000011444092</v>
+      </c>
+      <c r="B11">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>600</v>
+      </c>
+      <c r="E11">
+        <v>350</v>
+      </c>
+      <c r="F11">
+        <v>-46.116298542707604</v>
+      </c>
+      <c r="G11">
+        <v>13.17629854281895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>89.746999979019165</v>
+      </c>
+      <c r="B12">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12">
+        <v>350</v>
+      </c>
+      <c r="F12">
+        <v>-43.822499219113041</v>
+      </c>
+      <c r="G12">
+        <v>10.882499219219413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>99.746000051498413</v>
+      </c>
+      <c r="B13">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <v>350</v>
+      </c>
+      <c r="F13">
+        <v>-44.860420420426706</v>
+      </c>
+      <c r="G13">
+        <v>11.920420420531006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>109.74600005149841</v>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>600</v>
+      </c>
+      <c r="E14">
+        <v>350</v>
+      </c>
+      <c r="F14">
+        <v>-43.677631166890819</v>
+      </c>
+      <c r="G14">
+        <v>10.737631166992966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>119.74500012397766</v>
+      </c>
+      <c r="B15">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>600</v>
+      </c>
+      <c r="E15">
+        <v>350</v>
+      </c>
+      <c r="F15">
+        <v>-43.837477696964413</v>
+      </c>
+      <c r="G15">
+        <v>10.897477697066225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>129.76100015640259</v>
+      </c>
+      <c r="B16">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>600</v>
+      </c>
+      <c r="E16">
+        <v>350</v>
+      </c>
+      <c r="F16">
+        <v>-45.035656673049488</v>
+      </c>
+      <c r="G16">
+        <v>12.095656673153695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>139.75999999046326</v>
+      </c>
+      <c r="B17">
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>600</v>
+      </c>
+      <c r="E17">
+        <v>350</v>
+      </c>
+      <c r="F17">
+        <v>-44.513153999779831</v>
+      </c>
+      <c r="G17">
+        <v>11.573153999885081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>149.75999999046326</v>
+      </c>
+      <c r="B18">
+        <v>97</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>600</v>
+      </c>
+      <c r="E18">
+        <v>350</v>
+      </c>
+      <c r="F18">
+        <v>-44.513513760908801</v>
+      </c>
+      <c r="G18">
+        <v>11.573513761014054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>159.75999999046326</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>600</v>
+      </c>
+      <c r="E19">
+        <v>400</v>
+      </c>
+      <c r="F19">
+        <v>-45.569488711130518</v>
+      </c>
+      <c r="G19">
+        <v>12.629488711233664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>169.77500009536743</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>600</v>
+      </c>
+      <c r="E20">
+        <v>400</v>
+      </c>
+      <c r="F20">
+        <v>-42.780279617049615</v>
+      </c>
+      <c r="G20">
+        <v>9.8402796171472069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>179.78999996185303</v>
+      </c>
+      <c r="B21">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>600</v>
+      </c>
+      <c r="E21">
+        <v>400</v>
+      </c>
+      <c r="F21">
+        <v>-44.51442705623402</v>
+      </c>
+      <c r="G21">
+        <v>11.574427056328146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>189.8050000667572</v>
+      </c>
+      <c r="B22">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>600</v>
+      </c>
+      <c r="E22">
+        <v>400</v>
+      </c>
+      <c r="F22">
+        <v>-45.27855811486841</v>
+      </c>
+      <c r="G22">
+        <v>12.338558114964064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>199.8050000667572</v>
+      </c>
+      <c r="B23">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>600</v>
+      </c>
+      <c r="E23">
+        <v>400</v>
+      </c>
+      <c r="F23">
+        <v>-46.231745079597957</v>
+      </c>
+      <c r="G23">
+        <v>13.291745079691708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>209.82000017166138</v>
+      </c>
+      <c r="B24">
+        <v>126</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>600</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24">
+        <v>-47.56694709712491</v>
+      </c>
+      <c r="G24">
+        <v>14.626947097221329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>219.83500003814697</v>
+      </c>
+      <c r="B25">
+        <v>134</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>600</v>
+      </c>
+      <c r="E25">
+        <v>400</v>
+      </c>
+      <c r="F25">
+        <v>-48.087647381195843</v>
+      </c>
+      <c r="G25">
+        <v>15.147647381291225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>229.83500003814697</v>
+      </c>
+      <c r="B26">
+        <v>131</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>600</v>
+      </c>
+      <c r="E26">
+        <v>400</v>
+      </c>
+      <c r="F26">
+        <v>-49.53395864722507</v>
+      </c>
+      <c r="G26">
+        <v>16.59395864732334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>239.85000014305115</v>
+      </c>
+      <c r="B27">
+        <v>146</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>600</v>
+      </c>
+      <c r="E27">
+        <v>400</v>
+      </c>
+      <c r="F27">
+        <v>-48.98136139271076</v>
+      </c>
+      <c r="G27">
+        <v>16.041361392810135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>249.86500000953674</v>
+      </c>
+      <c r="B28">
+        <v>149</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>600</v>
+      </c>
+      <c r="E28">
+        <v>400</v>
+      </c>
+      <c r="F28">
+        <v>-51.874209464018755</v>
+      </c>
+      <c r="G28">
+        <v>18.93420946412391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>259.84899997711182</v>
+      </c>
+      <c r="B29">
+        <v>154</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>600</v>
+      </c>
+      <c r="E29">
+        <v>400</v>
+      </c>
+      <c r="F29">
+        <v>-52.494063395025563</v>
+      </c>
+      <c r="G29">
+        <v>19.554063395129482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>269.84899997711182</v>
+      </c>
+      <c r="B30">
+        <v>163</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>600</v>
+      </c>
+      <c r="E30">
+        <v>400</v>
+      </c>
+      <c r="F30">
+        <v>-53.561038679018452</v>
+      </c>
+      <c r="G30">
+        <v>20.621038679124503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>279.88000011444092</v>
+      </c>
+      <c r="B31">
+        <v>170</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>600</v>
+      </c>
+      <c r="E31">
+        <v>400</v>
+      </c>
+      <c r="F31">
+        <v>-55.595043994839621</v>
+      </c>
+      <c r="G31">
+        <v>22.655043994941604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>289.86400008201599</v>
+      </c>
+      <c r="B32">
+        <v>178</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>600</v>
+      </c>
+      <c r="E32">
+        <v>400</v>
+      </c>
+      <c r="F32">
+        <v>-57.287039435551037</v>
+      </c>
+      <c r="G32">
+        <v>24.347039435656402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>299.89499998092651</v>
+      </c>
+      <c r="B33">
+        <v>180</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>600</v>
+      </c>
+      <c r="E33">
+        <v>400</v>
+      </c>
+      <c r="F33">
+        <v>-59.351445565686603</v>
+      </c>
+      <c r="G33">
+        <v>26.411445565787837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>309.87899994850159</v>
+      </c>
+      <c r="B34">
+        <v>180</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>600</v>
+      </c>
+      <c r="E34">
+        <v>400</v>
+      </c>
+      <c r="F34">
+        <v>-59.89093332309448</v>
+      </c>
+      <c r="G34">
+        <v>26.950933323196793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>319.89400005340576</v>
+      </c>
+      <c r="B35">
+        <v>193</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>600</v>
+      </c>
+      <c r="E35">
+        <v>400</v>
+      </c>
+      <c r="F35">
+        <v>-59.890909089634562</v>
+      </c>
+      <c r="G35">
+        <v>26.950909089736879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>329.89300012588501</v>
+      </c>
+      <c r="B36">
+        <v>194</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>600</v>
+      </c>
+      <c r="E36">
+        <v>400</v>
+      </c>
+      <c r="F36">
+        <v>-63.652328680727038</v>
+      </c>
+      <c r="G36">
+        <v>30.71232868083688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>339.90900015830994</v>
+      </c>
+      <c r="B37">
+        <v>203</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>600</v>
+      </c>
+      <c r="E37">
+        <v>400</v>
+      </c>
+      <c r="F37">
+        <v>-63.961177683748573</v>
+      </c>
+      <c r="G37">
+        <v>31.021177683857797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>349.92400002479553</v>
+      </c>
+      <c r="B38">
+        <v>209</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>600</v>
+      </c>
+      <c r="E38">
+        <v>400</v>
+      </c>
+      <c r="F38">
+        <v>-66.883362939264742</v>
+      </c>
+      <c r="G38">
+        <v>33.94336293937981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>359.93900012969971</v>
+      </c>
+      <c r="B39">
+        <v>212</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>600</v>
+      </c>
+      <c r="E39">
+        <v>400</v>
+      </c>
+      <c r="F39">
+        <v>-68.984373273631888</v>
+      </c>
+      <c r="G39">
+        <v>36.044373273742764</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>369.93900012969971</v>
+      </c>
+      <c r="B40">
+        <v>210</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>600</v>
+      </c>
+      <c r="E40">
+        <v>400</v>
+      </c>
+      <c r="F40">
+        <v>-70.085147878115606</v>
+      </c>
+      <c r="G40">
+        <v>37.145147878228684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>379.93799996376038</v>
+      </c>
+      <c r="B41">
+        <v>218</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>600</v>
+      </c>
+      <c r="E41">
+        <v>400</v>
+      </c>
+      <c r="F41">
+        <v>-69.347340405578024</v>
+      </c>
+      <c r="G41">
+        <v>36.40734040569258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>389.93799996376038</v>
+      </c>
+      <c r="B42">
+        <v>230</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>600</v>
+      </c>
+      <c r="E42">
+        <v>400</v>
+      </c>
+      <c r="F42">
+        <v>-72.395717119086882</v>
+      </c>
+      <c r="G42">
+        <v>39.455717119207534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>399.93799996376038</v>
+      </c>
+      <c r="B43">
+        <v>239</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>600</v>
+      </c>
+      <c r="E43">
+        <v>400</v>
+      </c>
+      <c r="F43">
+        <v>-77.506066151605296</v>
+      </c>
+      <c r="G43">
+        <v>44.566066151715731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>409.93700003623962</v>
+      </c>
+      <c r="B44">
+        <v>240</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>600</v>
+      </c>
+      <c r="E44">
+        <v>400</v>
+      </c>
+      <c r="F44">
+        <v>-81.83866328689254</v>
+      </c>
+      <c r="G44">
+        <v>48.898663287011651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>419.93700003623962</v>
+      </c>
+      <c r="B45">
+        <v>241</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>600</v>
+      </c>
+      <c r="E45">
+        <v>400</v>
+      </c>
+      <c r="F45">
+        <v>-82.350018156087089</v>
+      </c>
+      <c r="G45">
+        <v>49.410018156205176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>429.9520001411438</v>
+      </c>
+      <c r="B46">
+        <v>245</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>600</v>
+      </c>
+      <c r="E46">
+        <v>400</v>
+      </c>
+      <c r="F46">
+        <v>-82.867942903126846</v>
+      </c>
+      <c r="G46">
+        <v>49.92794290324597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>439.9520001411438</v>
+      </c>
+      <c r="B47">
+        <v>247</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>600</v>
+      </c>
+      <c r="E47">
+        <v>400</v>
+      </c>
+      <c r="F47">
+        <v>-85.006527313821238</v>
+      </c>
+      <c r="G47">
+        <v>52.066527313936078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>449.95099997520447</v>
+      </c>
+      <c r="B48">
+        <v>251</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>600</v>
+      </c>
+      <c r="E48">
+        <v>400</v>
+      </c>
+      <c r="F48">
+        <v>-86.117686367318498</v>
+      </c>
+      <c r="G48">
+        <v>53.177686367435562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>459.9539999961853</v>
+      </c>
+      <c r="B49">
+        <v>263</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>600</v>
+      </c>
+      <c r="E49">
+        <v>400</v>
+      </c>
+      <c r="F49">
+        <v>-88.429611976253469</v>
+      </c>
+      <c r="G49">
+        <v>55.489611976365907</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>469.95300006866455</v>
+      </c>
+      <c r="B50">
+        <v>259</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>600</v>
+      </c>
+      <c r="E50">
+        <v>400</v>
+      </c>
+      <c r="F50">
+        <v>-96.175458673871006</v>
+      </c>
+      <c r="G50">
+        <v>63.235458673998941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>479.95300006866455</v>
+      </c>
+      <c r="B51">
+        <v>271</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>600</v>
+      </c>
+      <c r="E51">
+        <v>400</v>
+      </c>
+      <c r="F51">
+        <v>-93.446711610618991</v>
+      </c>
+      <c r="G51">
+        <v>60.50671161075239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>489.95300006866455</v>
+      </c>
+      <c r="B52">
+        <v>273</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>600</v>
+      </c>
+      <c r="E52">
+        <v>400</v>
+      </c>
+      <c r="F52">
+        <v>-102.1398487774329</v>
+      </c>
+      <c r="G52">
+        <v>69.199848777583696</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>499.96800017356873</v>
+      </c>
+      <c r="B53">
+        <v>274</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>600</v>
+      </c>
+      <c r="E53">
+        <v>400</v>
+      </c>
+      <c r="F53">
+        <v>-103.74808980346846</v>
+      </c>
+      <c r="G53">
+        <v>70.808089803616042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>509.96700000762939</v>
+      </c>
+      <c r="B54">
+        <v>278</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>600</v>
+      </c>
+      <c r="E54">
+        <v>400</v>
+      </c>
+      <c r="F54">
+        <v>-104.57145848786858</v>
+      </c>
+      <c r="G54">
+        <v>71.631458488017813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>519.96700000762939</v>
+      </c>
+      <c r="B55">
+        <v>284</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>600</v>
+      </c>
+      <c r="E55">
+        <v>400</v>
+      </c>
+      <c r="F55">
+        <v>-108.00012579106389</v>
+      </c>
+      <c r="G55">
+        <v>75.060125791206261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>529.96700000762939</v>
+      </c>
+      <c r="B56">
+        <v>281</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>600</v>
+      </c>
+      <c r="E56">
+        <v>400</v>
+      </c>
+      <c r="F56">
+        <v>-113.58641546217628</v>
+      </c>
+      <c r="G56">
+        <v>80.646415462329827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>539.96600008010864</v>
+      </c>
+      <c r="B57">
+        <v>294</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>600</v>
+      </c>
+      <c r="E57">
+        <v>400</v>
+      </c>
+      <c r="F57">
+        <v>-110.72258313171143</v>
+      </c>
+      <c r="G57">
+        <v>77.782583131870709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>549.98099994659424</v>
+      </c>
+      <c r="B58">
+        <v>298</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>600</v>
+      </c>
+      <c r="E58">
+        <v>400</v>
+      </c>
+      <c r="F58">
+        <v>-124.3024131980317</v>
+      </c>
+      <c r="G58">
+        <v>91.36241319821815</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>559.99699997901917</v>
+      </c>
+      <c r="B59">
+        <v>302</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>600</v>
+      </c>
+      <c r="E59">
+        <v>400</v>
+      </c>
+      <c r="F59">
+        <v>-129.17666299774672</v>
+      </c>
+      <c r="G59">
+        <v>96.236662997923403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>569.99600005149841</v>
+      </c>
+      <c r="B60">
+        <v>303</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>600</v>
+      </c>
+      <c r="E60">
+        <v>400</v>
+      </c>
+      <c r="F60">
+        <v>-134.44919195294062</v>
+      </c>
+      <c r="G60">
+        <v>101.50919195312787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>580.01100015640259</v>
+      </c>
+      <c r="B61">
+        <v>305</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>600</v>
+      </c>
+      <c r="E61">
+        <v>400</v>
+      </c>
+      <c r="F61">
+        <v>-135.83510766542719</v>
+      </c>
+      <c r="G61">
+        <v>102.89510766561165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>590.02699995040894</v>
+      </c>
+      <c r="B62">
+        <v>308</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>600</v>
+      </c>
+      <c r="E62">
+        <v>400</v>
+      </c>
+      <c r="F62">
+        <v>-138.69485393156722</v>
+      </c>
+      <c r="G62">
+        <v>105.75485393175741</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>600.02600002288818</v>
+      </c>
+      <c r="B63">
+        <v>309</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>600</v>
+      </c>
+      <c r="E63">
+        <v>400</v>
+      </c>
+      <c r="F63">
+        <v>-143.2175797789086</v>
+      </c>
+      <c r="G63">
+        <v>110.27757977908972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>610.04200005531311</v>
+      </c>
+      <c r="B64">
+        <v>320</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>600</v>
+      </c>
+      <c r="E64">
+        <v>400</v>
+      </c>
+      <c r="F64">
+        <v>-144.79127477607756</v>
+      </c>
+      <c r="G64">
+        <v>111.85127477626182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>620.05700016021729</v>
+      </c>
+      <c r="B65">
+        <v>321</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>600</v>
+      </c>
+      <c r="E65">
+        <v>400</v>
+      </c>
+      <c r="F65">
+        <v>-164.70090237066341</v>
+      </c>
+      <c r="G65">
+        <v>131.7609023708078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>630.05599999427795</v>
+      </c>
+      <c r="B66">
+        <v>322</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>600</v>
+      </c>
+      <c r="E66">
+        <v>400</v>
+      </c>
+      <c r="F66">
+        <v>-166.7849053449068</v>
+      </c>
+      <c r="G66">
+        <v>133.84490534505534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>640.05599999427795</v>
+      </c>
+      <c r="B67">
+        <v>326</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>600</v>
+      </c>
+      <c r="E67">
+        <v>400</v>
+      </c>
+      <c r="F67">
+        <v>-168.92317543000522</v>
+      </c>
+      <c r="G67">
+        <v>135.98317543014946</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>650.07100009918213</v>
+      </c>
+      <c r="B68">
+        <v>327</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>600</v>
+      </c>
+      <c r="E68">
+        <v>400</v>
+      </c>
+      <c r="F68">
+        <v>-178.054489652835</v>
+      </c>
+      <c r="G68">
+        <v>145.11448965299755</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>660.08599996566772</v>
+      </c>
+      <c r="B69">
+        <v>333</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>600</v>
+      </c>
+      <c r="E69">
+        <v>400</v>
+      </c>
+      <c r="F69">
+        <v>-180.49326810016848</v>
+      </c>
+      <c r="G69">
+        <v>147.55326810032614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>670.08599996566772</v>
+      </c>
+      <c r="B70">
+        <v>336</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>600</v>
+      </c>
+      <c r="E70">
+        <v>400</v>
+      </c>
+      <c r="F70">
+        <v>-196.6575426173865</v>
+      </c>
+      <c r="G70">
+        <v>163.71754261757653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>680.08599996566772</v>
+      </c>
+      <c r="B71">
+        <v>337</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>600</v>
+      </c>
+      <c r="E71">
+        <v>400</v>
+      </c>
+      <c r="F71">
+        <v>-205.87548699903445</v>
+      </c>
+      <c r="G71">
+        <v>172.93548699920601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>690.08500003814697</v>
+      </c>
+      <c r="B72">
+        <v>343</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>600</v>
+      </c>
+      <c r="E72">
+        <v>400</v>
+      </c>
+      <c r="F72">
+        <v>-209.1430317755763</v>
+      </c>
+      <c r="G72">
+        <v>176.2030317757544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>700.10000014305115</v>
+      </c>
+      <c r="B73">
+        <v>350</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>600</v>
+      </c>
+      <c r="E73">
+        <v>400</v>
+      </c>
+      <c r="F73">
+        <v>-231.15916328445127</v>
+      </c>
+      <c r="G73">
+        <v>198.21916328458525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>710.11600017547607</v>
+      </c>
+      <c r="B74">
+        <v>352</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>600</v>
+      </c>
+      <c r="E74">
+        <v>400</v>
+      </c>
+      <c r="F74">
+        <v>-263.52206652771275</v>
+      </c>
+      <c r="G74">
+        <v>230.58206652791156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>720.11500000953674</v>
+      </c>
+      <c r="B75">
+        <v>353</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>600</v>
+      </c>
+      <c r="E75">
+        <v>400</v>
+      </c>
+      <c r="F75">
+        <v>-274.50072447995808</v>
+      </c>
+      <c r="G75">
+        <v>241.56072448013492</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>730.11500000953674</v>
+      </c>
+      <c r="B76">
+        <v>358</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>600</v>
+      </c>
+      <c r="E76">
+        <v>400</v>
+      </c>
+      <c r="F76">
+        <v>-280.34081756899059</v>
+      </c>
+      <c r="G76">
+        <v>247.40081756917914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>740.11500000953674</v>
+      </c>
+      <c r="B77">
+        <v>358</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>600</v>
+      </c>
+      <c r="E77">
+        <v>400</v>
+      </c>
+      <c r="F77">
+        <v>-313.71674454988465</v>
+      </c>
+      <c r="G77">
+        <v>280.7767445500063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>750.13000011444092</v>
+      </c>
+      <c r="B78">
+        <v>363</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>600</v>
+      </c>
+      <c r="E78">
+        <v>400</v>
+      </c>
+      <c r="F78">
+        <v>-313.71428553196893</v>
+      </c>
+      <c r="G78">
+        <v>280.77428553209057</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>760.12899994850159</v>
+      </c>
+      <c r="B79">
+        <v>366</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>600</v>
+      </c>
+      <c r="E79">
+        <v>400</v>
+      </c>
+      <c r="F79">
+        <v>-356.11158653146231</v>
+      </c>
+      <c r="G79">
+        <v>323.17158653149892</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>770.14499998092651</v>
+      </c>
+      <c r="B80">
+        <v>365</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>600</v>
+      </c>
+      <c r="E80">
+        <v>400</v>
+      </c>
+      <c r="F80">
+        <v>-387.53218557435162</v>
+      </c>
+      <c r="G80">
+        <v>354.59218557445126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>780.16000008583069</v>
+      </c>
+      <c r="B81">
+        <v>367</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>600</v>
+      </c>
+      <c r="E81">
+        <v>400</v>
+      </c>
+      <c r="F81">
+        <v>-376.4561894345577</v>
+      </c>
+      <c r="G81">
+        <v>343.51618943467957</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>790.17499995231628</v>
+      </c>
+      <c r="B82">
+        <v>367</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>600</v>
+      </c>
+      <c r="E82">
+        <v>400</v>
+      </c>
+      <c r="F82">
+        <v>-399.27479500048821</v>
+      </c>
+      <c r="G82">
+        <v>366.3347950006559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>800.17499995231628</v>
+      </c>
+      <c r="B83">
+        <v>372</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>600</v>
+      </c>
+      <c r="E83">
+        <v>400</v>
+      </c>
+      <c r="F83">
+        <v>-399.27272708330906</v>
+      </c>
+      <c r="G83">
+        <v>366.33272708347675</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>810.17400002479553</v>
+      </c>
+      <c r="B84">
+        <v>376</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>600</v>
+      </c>
+      <c r="E84">
+        <v>400</v>
+      </c>
+      <c r="F84">
+        <v>-470.57890447782518</v>
+      </c>
+      <c r="G84">
+        <v>437.63890447813606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>820.17400002479553</v>
+      </c>
+      <c r="B85">
+        <v>374</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>600</v>
+      </c>
+      <c r="E85">
+        <v>400</v>
+      </c>
+      <c r="F85">
+        <v>-549.00945485854356</v>
+      </c>
+      <c r="G85">
+        <v>516.06945485869687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>830.17300009727478</v>
+      </c>
+      <c r="B86">
+        <v>382</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>600</v>
+      </c>
+      <c r="E86">
+        <v>400</v>
+      </c>
+      <c r="F86">
+        <v>-506.76449567931797</v>
+      </c>
+      <c r="G86">
+        <v>473.82449567938647</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>840.17300009727478</v>
+      </c>
+      <c r="B87">
+        <v>378</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>600</v>
+      </c>
+      <c r="E87">
+        <v>400</v>
+      </c>
+      <c r="F87">
+        <v>-732.03544149002357</v>
+      </c>
+      <c r="G87">
+        <v>699.09544148963937</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>850.17300009727478</v>
+      </c>
+      <c r="B88">
+        <v>387</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>600</v>
+      </c>
+      <c r="E88">
+        <v>400</v>
+      </c>
+      <c r="F88">
+        <v>-598.89170665529548</v>
+      </c>
+      <c r="G88">
+        <v>565.95170665464377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>860.18799996376038</v>
+      </c>
+      <c r="B89">
+        <v>388</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>600</v>
+      </c>
+      <c r="E89">
+        <v>400</v>
+      </c>
+      <c r="F89">
+        <v>-1013.6272394739627</v>
+      </c>
+      <c r="G89">
+        <v>980.68723947247736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>870.18799996376038</v>
+      </c>
+      <c r="B90">
+        <v>389</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>600</v>
+      </c>
+      <c r="E90">
+        <v>400</v>
+      </c>
+      <c r="F90">
+        <v>-1098.0195026971041</v>
+      </c>
+      <c r="G90">
+        <v>1065.0795026957885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>880.18700003623962</v>
+      </c>
+      <c r="B91">
+        <v>392</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>600</v>
+      </c>
+      <c r="E91">
+        <v>400</v>
+      </c>
+      <c r="F91">
+        <v>-1197.8432610990708</v>
+      </c>
+      <c r="G91">
+        <v>1164.9032610975544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>890.18700003623962</v>
+      </c>
+      <c r="B92">
+        <v>394</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>600</v>
+      </c>
+      <c r="E92">
+        <v>400</v>
+      </c>
+      <c r="F92">
+        <v>-1647.1536250316738</v>
+      </c>
+      <c r="G92">
+        <v>1614.2136250310616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>900.18600010871887</v>
+      </c>
+      <c r="B93">
+        <v>397</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>600</v>
+      </c>
+      <c r="E93">
+        <v>400</v>
+      </c>
+      <c r="F93">
+        <v>-2196.2486273625173</v>
+      </c>
+      <c r="G93">
+        <v>2163.3086273607992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>910.18600010871887</v>
+      </c>
+      <c r="B94">
+        <v>399</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>600</v>
+      </c>
+      <c r="E94">
+        <v>400</v>
+      </c>
+      <c r="F94">
+        <v>-4393.9702061877761</v>
+      </c>
+      <c r="G94">
+        <v>4361.0302061904886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>920.20099997520447</v>
+      </c>
+      <c r="B95">
+        <v>402</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>600</v>
+      </c>
+      <c r="E95">
+        <v>400</v>
+      </c>
+      <c r="F95">
+        <v>-13199.524127421857</v>
+      </c>
+      <c r="G95">
+        <v>13166.58412740679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>930.20099997520447</v>
+      </c>
+      <c r="B96">
+        <v>396</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>600</v>
+      </c>
+      <c r="E96">
+        <v>400</v>
+      </c>
+      <c r="F96">
+        <v>6561.8648689217443</v>
+      </c>
+      <c r="G96">
+        <v>-6594.8048689769385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>940.20000004768372</v>
+      </c>
+      <c r="B97">
+        <v>402</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>600</v>
+      </c>
+      <c r="E97">
+        <v>400</v>
+      </c>
+      <c r="F97">
+        <v>-3300.653463532286</v>
+      </c>
+      <c r="G97">
+        <v>3267.7134634571175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>950.20000004768372</v>
+      </c>
+      <c r="B98">
+        <v>401</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>600</v>
+      </c>
+      <c r="E98">
+        <v>400</v>
+      </c>
+      <c r="F98">
+        <v>6574.9391953454233</v>
+      </c>
+      <c r="G98">
+        <v>-6607.8791954406188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>960.20000004768372</v>
+      </c>
+      <c r="B99">
+        <v>403</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>600</v>
+      </c>
+      <c r="E99">
+        <v>400</v>
+      </c>
+      <c r="F99">
+        <v>13158.528334297662</v>
+      </c>
+      <c r="G99">
+        <v>-13191.468334379542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>970.19900012016296</v>
+      </c>
+      <c r="B100">
+        <v>407</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>600</v>
+      </c>
+      <c r="E100">
+        <v>400</v>
+      </c>
+      <c r="F100">
+        <v>4399.697195050876</v>
+      </c>
+      <c r="G100">
+        <v>-4432.6371951151323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>980.19900012016296</v>
+      </c>
+      <c r="B101">
+        <v>410</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>600</v>
+      </c>
+      <c r="E101">
+        <v>400</v>
+      </c>
+      <c r="F101">
+        <v>1883.2211828703457</v>
+      </c>
+      <c r="G101">
+        <v>-1916.1611829396561</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>990.21399998664856</v>
+      </c>
+      <c r="B102">
+        <v>415</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>600</v>
+      </c>
+      <c r="E102">
+        <v>400</v>
+      </c>
+      <c r="F102">
+        <v>1317.7457292598533</v>
+      </c>
+      <c r="G102">
+        <v>-1350.6857293280289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>1000.2139999866486</v>
+      </c>
+      <c r="B103">
+        <v>421</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>600</v>
+      </c>
+      <c r="E103">
+        <v>400</v>
+      </c>
+      <c r="F103">
+        <v>878.4742769068539</v>
+      </c>
+      <c r="G103">
+        <v>-911.4142769759103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>1010.2130000591278</v>
+      </c>
+      <c r="B104">
+        <v>423</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>600</v>
+      </c>
+      <c r="E104">
+        <v>400</v>
+      </c>
+      <c r="F104">
+        <v>627.45832487370069</v>
+      </c>
+      <c r="G104">
+        <v>-660.39832494225379</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>1020.2290000915527</v>
+      </c>
+      <c r="B105">
+        <v>418</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>600</v>
+      </c>
+      <c r="E105">
+        <v>400</v>
+      </c>
+      <c r="F105">
+        <v>572.87543693584303</v>
+      </c>
+      <c r="G105">
+        <v>-605.8154370045055</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>1030.2439999580383</v>
+      </c>
+      <c r="B106">
+        <v>418</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>600</v>
+      </c>
+      <c r="E106">
+        <v>400</v>
+      </c>
+      <c r="F106">
+        <v>731.9777938286054</v>
+      </c>
+      <c r="G106">
+        <v>-764.91779389758676</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>1040.2430000305176</v>
+      </c>
+      <c r="B107">
+        <v>427</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>600</v>
+      </c>
+      <c r="E107">
+        <v>400</v>
+      </c>
+      <c r="F107">
+        <v>731.99999843357261</v>
+      </c>
+      <c r="G107">
+        <v>-764.93999850255398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>1050.2590000629425</v>
+      </c>
+      <c r="B108">
+        <v>427</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>600</v>
+      </c>
+      <c r="E108">
+        <v>400</v>
+      </c>
+      <c r="F108">
+        <v>488.02208149227596</v>
+      </c>
+      <c r="G108">
+        <v>-520.96208156076864</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>1060.2580001354218</v>
+      </c>
+      <c r="B109">
+        <v>427</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>600</v>
+      </c>
+      <c r="E109">
+        <v>400</v>
+      </c>
+      <c r="F109">
+        <v>488.00000301285246</v>
+      </c>
+      <c r="G109">
+        <v>-520.94000308134514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>1070.2580001354218</v>
+      </c>
+      <c r="B110">
+        <v>426</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>600</v>
+      </c>
+      <c r="E110">
+        <v>400</v>
+      </c>
+      <c r="F110">
+        <v>488.00000101488718</v>
+      </c>
+      <c r="G110">
+        <v>-520.9400010833798</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>1080.2580001354218</v>
+      </c>
+      <c r="B111">
+        <v>426</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>600</v>
+      </c>
+      <c r="E111">
+        <v>400</v>
+      </c>
+      <c r="F111">
+        <v>506.76746261228237</v>
+      </c>
+      <c r="G111">
+        <v>-539.70746268073742</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>1090.2569999694824</v>
+      </c>
+      <c r="B112">
+        <v>429</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>600</v>
+      </c>
+      <c r="E112">
+        <v>400</v>
+      </c>
+      <c r="F112">
+        <v>506.76923165561794</v>
+      </c>
+      <c r="G112">
+        <v>-539.70923172407299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>1100.2720000743866</v>
+      </c>
+      <c r="B113">
+        <v>429</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>600</v>
+      </c>
+      <c r="E113">
+        <v>400</v>
+      </c>
+      <c r="F113">
+        <v>454.34921870732177</v>
+      </c>
+      <c r="G113">
+        <v>-487.28921877588175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>1110.2560000419617</v>
+      </c>
+      <c r="B114">
+        <v>432</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>600</v>
+      </c>
+      <c r="E114">
+        <v>400</v>
+      </c>
+      <c r="F114">
+        <v>454.34482889950766</v>
+      </c>
+      <c r="G114">
+        <v>-487.28482896806764</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1120.2720000743866</v>
+      </c>
+      <c r="B115">
+        <v>427</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>600</v>
+      </c>
+      <c r="E115">
+        <v>400</v>
+      </c>
+      <c r="F115">
+        <v>411.75320438492975</v>
+      </c>
+      <c r="G115">
+        <v>-444.69320445357488</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>1130.2870001792908</v>
+      </c>
+      <c r="B116">
+        <v>429</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>600</v>
+      </c>
+      <c r="E116">
+        <v>400</v>
+      </c>
+      <c r="F116">
+        <v>487.99310115979483</v>
+      </c>
+      <c r="G116">
+        <v>-520.93310122859248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1140.2860000133514</v>
+      </c>
+      <c r="B117">
+        <v>429</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>600</v>
+      </c>
+      <c r="E117">
+        <v>400</v>
+      </c>
+      <c r="F117">
+        <v>454.34764634250837</v>
+      </c>
+      <c r="G117">
+        <v>-487.28764641137332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>1150.3170001506805</v>
+      </c>
+      <c r="B118">
+        <v>430</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>600</v>
+      </c>
+      <c r="E118">
+        <v>400</v>
+      </c>
+      <c r="F118">
+        <v>454.34482877203925</v>
+      </c>
+      <c r="G118">
+        <v>-487.2848288409042</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>1160.3170001506805</v>
+      </c>
+      <c r="B119">
+        <v>432</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>600</v>
+      </c>
+      <c r="E119">
+        <v>400</v>
+      </c>
+      <c r="F119">
+        <v>439.20122321715559</v>
+      </c>
+      <c r="G119">
+        <v>-472.14122328605083</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>1170.3159999847412</v>
+      </c>
+      <c r="B120">
+        <v>434</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>600</v>
+      </c>
+      <c r="E120">
+        <v>400</v>
+      </c>
+      <c r="F120">
+        <v>411.75206544750591</v>
+      </c>
+      <c r="G120">
+        <v>-444.6920655163463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>1180.3320000171661</v>
+      </c>
+      <c r="B121">
+        <v>434</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>600</v>
+      </c>
+      <c r="E121">
+        <v>400</v>
+      </c>
+      <c r="F121">
+        <v>387.53111695703194</v>
+      </c>
+      <c r="G121">
+        <v>-420.47111702592076</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>1190.3470001220703</v>
+      </c>
+      <c r="B122">
+        <v>433</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>600</v>
+      </c>
+      <c r="E122">
+        <v>400</v>
+      </c>
+      <c r="F122">
+        <v>387.52941269508801</v>
+      </c>
+      <c r="G122">
+        <v>-420.46941276397678</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>1200.3470001220703</v>
+      </c>
+      <c r="B123">
+        <v>436</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>600</v>
+      </c>
+      <c r="E123">
+        <v>400</v>
+      </c>
+      <c r="F123">
+        <v>399.27187422582676</v>
+      </c>
+      <c r="G123">
+        <v>-432.21187429469211</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>1210.345999956131</v>
+      </c>
+      <c r="B124">
+        <v>437</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>600</v>
+      </c>
+      <c r="E124">
+        <v>400</v>
+      </c>
+      <c r="F124">
+        <v>366.00219870902816</v>
+      </c>
+      <c r="G124">
+        <v>-398.94219877782706</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>1220.345999956131</v>
+      </c>
+      <c r="B125">
+        <v>447</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>600</v>
+      </c>
+      <c r="E125">
+        <v>400</v>
+      </c>
+      <c r="F125">
+        <v>356.10874291261422</v>
+      </c>
+      <c r="G125">
+        <v>-389.04874298143289</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>1230.3610000610352</v>
+      </c>
+      <c r="B126">
+        <v>448</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>600</v>
+      </c>
+      <c r="E126">
+        <v>400</v>
+      </c>
+      <c r="F126">
+        <v>280.34413886560765</v>
+      </c>
+      <c r="G126">
+        <v>-313.28413893427501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>1240.3610000610352</v>
+      </c>
+      <c r="B127">
+        <v>436</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>600</v>
+      </c>
+      <c r="E127">
+        <v>400</v>
+      </c>
+      <c r="F127">
+        <v>274.50028017409585</v>
+      </c>
+      <c r="G127">
+        <v>-307.44028024277486</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>1250.3760001659393</v>
+      </c>
+      <c r="B128">
+        <v>442</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>600</v>
+      </c>
+      <c r="E128">
+        <v>400</v>
+      </c>
+      <c r="F128">
+        <v>365.99395628083931</v>
+      </c>
+      <c r="G128">
+        <v>-398.93395634970096</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>1260.3910000324249</v>
+      </c>
+      <c r="B129">
+        <v>454</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>600</v>
+      </c>
+      <c r="E129">
+        <v>400</v>
+      </c>
+      <c r="F129">
+        <v>313.71719487095743</v>
+      </c>
+      <c r="G129">
+        <v>-346.65719493992344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>1270.4060001373291</v>
+      </c>
+      <c r="B130">
+        <v>446</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>600</v>
+      </c>
+      <c r="E130">
+        <v>400</v>
+      </c>
+      <c r="F130">
+        <v>244.00291531476415</v>
+      </c>
+      <c r="G130">
+        <v>-276.94291538359096</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>1280.4060001373291</v>
+      </c>
+      <c r="B131">
+        <v>445</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>600</v>
+      </c>
+      <c r="E131">
+        <v>400</v>
+      </c>
+      <c r="F131">
+        <v>286.43265267037225</v>
+      </c>
+      <c r="G131">
+        <v>-319.37265273911436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>1290.4049999713898</v>
+      </c>
+      <c r="B132">
+        <v>452</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>600</v>
+      </c>
+      <c r="E132">
+        <v>400</v>
+      </c>
+      <c r="F132">
+        <v>292.79967285341405</v>
+      </c>
+      <c r="G132">
+        <v>-325.73967292216884</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>1300.4049999713898</v>
+      </c>
+      <c r="B133">
+        <v>448</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>600</v>
+      </c>
+      <c r="E133">
+        <v>400</v>
+      </c>
+      <c r="F133">
+        <v>253.38633688698383</v>
+      </c>
+      <c r="G133">
+        <v>-286.32633695581728</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>1310.4200000762939</v>
+      </c>
+      <c r="B134">
+        <v>448</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>600</v>
+      </c>
+      <c r="E134">
+        <v>400</v>
+      </c>
+      <c r="F134">
+        <v>274.49899043055876</v>
+      </c>
+      <c r="G134">
+        <v>-307.4389904994344</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>1320.4360001087189</v>
+      </c>
+      <c r="B135">
+        <v>447</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>600</v>
+      </c>
+      <c r="E135">
+        <v>400</v>
+      </c>
+      <c r="F135">
+        <v>274.50000052563519</v>
+      </c>
+      <c r="G135">
+        <v>-307.44000059451082</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>1330.4509999752045</v>
+      </c>
+      <c r="B136">
+        <v>456</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>600</v>
+      </c>
+      <c r="E136">
+        <v>400</v>
+      </c>
+      <c r="F136">
+        <v>280.3401399294911</v>
+      </c>
+      <c r="G136">
+        <v>-313.28013999837839</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>1340.4500000476837</v>
+      </c>
+      <c r="B137">
+        <v>454</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>600</v>
+      </c>
+      <c r="E137">
+        <v>400</v>
+      </c>
+      <c r="F137">
+        <v>235.28752101500868</v>
+      </c>
+      <c r="G137">
+        <v>-268.22752108398583</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>1350.4809999465942</v>
+      </c>
+      <c r="B138">
+        <v>456</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>600</v>
+      </c>
+      <c r="E138">
+        <v>400</v>
+      </c>
+      <c r="F138">
+        <v>243.99963625117087</v>
+      </c>
+      <c r="G138">
+        <v>-276.93963632016539</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>1360.4809999465942</v>
+      </c>
+      <c r="B139">
+        <v>457</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>600</v>
+      </c>
+      <c r="E139">
+        <v>400</v>
+      </c>
+      <c r="F139">
+        <v>235.28606412067646</v>
+      </c>
+      <c r="G139">
+        <v>-268.22606418968837</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>1370.4960000514984</v>
+      </c>
+      <c r="B140">
+        <v>458</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>600</v>
+      </c>
+      <c r="E140">
+        <v>400</v>
+      </c>
+      <c r="F140">
+        <v>231.1580573624492</v>
+      </c>
+      <c r="G140">
+        <v>-264.0980574314529</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>1380.5110001564026</v>
+      </c>
+      <c r="B141">
+        <v>457</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>600</v>
+      </c>
+      <c r="E141">
+        <v>400</v>
+      </c>
+      <c r="F141">
+        <v>227.17256768518516</v>
+      </c>
+      <c r="G141">
+        <v>-260.11256775419679</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>1390.5110001564026</v>
+      </c>
+      <c r="B142">
+        <v>459</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>600</v>
+      </c>
+      <c r="E142">
+        <v>400</v>
+      </c>
+      <c r="F142">
+        <v>231.1577386901748</v>
+      </c>
+      <c r="G142">
+        <v>-264.09773875919439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>1400.5260000228882</v>
+      </c>
+      <c r="B143">
+        <v>459</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>600</v>
+      </c>
+      <c r="E143">
+        <v>400</v>
+      </c>
+      <c r="F143">
+        <v>223.32233004461816</v>
+      </c>
+      <c r="G143">
+        <v>-256.26233011365338</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>1410.5260000228882</v>
+      </c>
+      <c r="B144">
+        <v>460</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>600</v>
+      </c>
+      <c r="E144">
+        <v>400</v>
+      </c>
+      <c r="F144">
+        <v>223.3220343774978</v>
+      </c>
+      <c r="G144">
+        <v>-256.26203444653299</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>1420.5410001277924</v>
+      </c>
+      <c r="B145">
+        <v>460</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>600</v>
+      </c>
+      <c r="E145">
+        <v>400</v>
+      </c>
+      <c r="F145">
+        <v>219.60013818711656</v>
+      </c>
+      <c r="G145">
+        <v>-252.54013825615917</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>1430.5410001277924</v>
+      </c>
+      <c r="B146">
+        <v>463</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>600</v>
+      </c>
+      <c r="E146">
+        <v>400</v>
+      </c>
+      <c r="F146">
+        <v>219.6000004653803</v>
+      </c>
+      <c r="G146">
+        <v>-252.54000053442292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>1440.539999961853</v>
+      </c>
+      <c r="B147">
+        <v>460</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>600</v>
+      </c>
+      <c r="E147">
+        <v>400</v>
+      </c>
+      <c r="F147">
+        <v>209.14322306680739</v>
+      </c>
+      <c r="G147">
+        <v>-242.08322313587087</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>1450.539999961853</v>
+      </c>
+      <c r="B148">
+        <v>460</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>600</v>
+      </c>
+      <c r="E148">
+        <v>400</v>
+      </c>
+      <c r="F148">
+        <v>219.59961352727254</v>
+      </c>
+      <c r="G148">
+        <v>-252.53961359635684</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>1460.5550000667572</v>
+      </c>
+      <c r="B149">
+        <v>463</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>600</v>
+      </c>
+      <c r="E149">
+        <v>400</v>
+      </c>
+      <c r="F149">
+        <v>219.60000044624425</v>
+      </c>
+      <c r="G149">
+        <v>-252.54000051532856</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>1470.5700001716614</v>
+      </c>
+      <c r="B150">
+        <v>466</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>600</v>
+      </c>
+      <c r="E150">
+        <v>400</v>
+      </c>
+      <c r="F150">
+        <v>209.14322306680697</v>
+      </c>
+      <c r="G150">
+        <v>-242.08322313587044</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>1480.5700001716614</v>
+      </c>
+      <c r="B151">
+        <v>465</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>600</v>
+      </c>
+      <c r="E151">
+        <v>400</v>
+      </c>
+      <c r="F151">
+        <v>199.63667863296317</v>
+      </c>
+      <c r="G151">
+        <v>-232.57667870204557</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>1490.569000005722</v>
+      </c>
+      <c r="B152">
+        <v>458</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>600</v>
+      </c>
+      <c r="E152">
+        <v>400</v>
+      </c>
+      <c r="F152">
+        <v>202.7075892691945</v>
+      </c>
+      <c r="G152">
+        <v>-235.64758933828301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>1500.569000005722</v>
+      </c>
+      <c r="B153">
+        <v>467</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>600</v>
+      </c>
+      <c r="E153">
+        <v>400</v>
+      </c>
+      <c r="F153">
+        <v>227.17147256449798</v>
+      </c>
+      <c r="G153">
+        <v>-260.11147263353774</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>1510.569000005722</v>
+      </c>
+      <c r="B154">
+        <v>463</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>600</v>
+      </c>
+      <c r="E154">
+        <v>400</v>
+      </c>
+      <c r="F154">
+        <v>196.65770877832156</v>
+      </c>
+      <c r="G154">
+        <v>-229.59770884730054</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>1520.5680000782013</v>
+      </c>
+      <c r="B155">
+        <v>464</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>600</v>
+      </c>
+      <c r="E155">
+        <v>400</v>
+      </c>
+      <c r="F155">
+        <v>209.14242121479057</v>
+      </c>
+      <c r="G155">
+        <v>-242.08242128374468</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>1530.5680000782013</v>
+      </c>
+      <c r="B156">
+        <v>464</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>600</v>
+      </c>
+      <c r="E156">
+        <v>400</v>
+      </c>
+      <c r="F156">
+        <v>205.87511253772303</v>
+      </c>
+      <c r="G156">
+        <v>-238.81511260667062</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>1540.5829999446869</v>
+      </c>
+      <c r="B157">
+        <v>471</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>600</v>
+      </c>
+      <c r="E157">
+        <v>400</v>
+      </c>
+      <c r="F157">
+        <v>205.87500043476894</v>
+      </c>
+      <c r="G157">
+        <v>-238.81500050371653</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>1550.5829999446869</v>
+      </c>
+      <c r="B158">
+        <v>466</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>600</v>
+      </c>
+      <c r="E158">
+        <v>400</v>
+      </c>
+      <c r="F158">
+        <v>185.57808112862878</v>
+      </c>
+      <c r="G158">
+        <v>-218.51808119753593</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>1560.5840001106262</v>
+      </c>
+      <c r="B159">
+        <v>469</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>600</v>
+      </c>
+      <c r="E159">
+        <v>400</v>
+      </c>
+      <c r="F159">
+        <v>199.63589887121469</v>
+      </c>
+      <c r="G159">
+        <v>-232.57589894009385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>